--- a/src/test/resource/com/makemytrip/flightdetails/Flight Details.xlsx
+++ b/src/test/resource/com/makemytrip/flightdetails/Flight Details.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="141">
   <si>
     <t>Vistara</t>
   </si>
@@ -362,6 +362,87 @@
   </si>
   <si>
     <t>₹ 10,294</t>
+  </si>
+  <si>
+    <t>12 h 10 m</t>
+  </si>
+  <si>
+    <t>₹ 6,820</t>
+  </si>
+  <si>
+    <t>07:00</t>
+  </si>
+  <si>
+    <t>₹ 10,663</t>
+  </si>
+  <si>
+    <t>09:40</t>
+  </si>
+  <si>
+    <t>02 h 05 m</t>
+  </si>
+  <si>
+    <t>20:50</t>
+  </si>
+  <si>
+    <t>₹ 10,757</t>
+  </si>
+  <si>
+    <t>₹ 10,758</t>
+  </si>
+  <si>
+    <t>21:05</t>
+  </si>
+  <si>
+    <t>22:25</t>
+  </si>
+  <si>
+    <t>Akasa Air ,Vistara</t>
+  </si>
+  <si>
+    <t>06 h 15 m</t>
+  </si>
+  <si>
+    <t>₹ 10,889</t>
+  </si>
+  <si>
+    <t>₹ 11,257</t>
+  </si>
+  <si>
+    <t>11:25</t>
+  </si>
+  <si>
+    <t>₹ 11,700</t>
+  </si>
+  <si>
+    <t>20:00</t>
+  </si>
+  <si>
+    <t>04 h 35 m</t>
+  </si>
+  <si>
+    <t>₹ 11,887</t>
+  </si>
+  <si>
+    <t>21:40</t>
+  </si>
+  <si>
+    <t>02 h 10 m</t>
+  </si>
+  <si>
+    <t>₹ 12,259</t>
+  </si>
+  <si>
+    <t>14 h 15 m</t>
+  </si>
+  <si>
+    <t>18:10</t>
+  </si>
+  <si>
+    <t>06 h 40 m</t>
+  </si>
+  <si>
+    <t>₹ 12,207</t>
   </si>
 </sst>
 </file>
@@ -753,226 +834,226 @@
   <sheetData>
     <row r="2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>137</v>
       </c>
       <c r="D2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="D4" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="C5" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="D5" t="s">
-        <v>76</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>105</v>
       </c>
       <c r="C6" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="D6" t="s">
-        <v>76</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="B7" t="s">
         <v>81</v>
       </c>
       <c r="C7" t="s">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="D7" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>74</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>77</v>
+        <v>112</v>
       </c>
       <c r="C8" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="D8" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>116</v>
       </c>
       <c r="C9" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="D9" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>119</v>
       </c>
       <c r="D10" t="s">
-        <v>90</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="B11" t="s">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="C11" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="D11" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>74</v>
+        <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="C12" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="D12" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>91</v>
+        <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="C13" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D13" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>68</v>
+        <v>124</v>
       </c>
       <c r="C14" t="s">
         <v>69</v>
       </c>
       <c r="D14" t="s">
-        <v>70</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="B15" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="C15" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="D15" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
       <c r="B16" t="s">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="C16" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="D16" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>91</v>
+        <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="C17" t="s">
-        <v>106</v>
+        <v>69</v>
       </c>
       <c r="D17" t="s">
-        <v>107</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18">
@@ -980,41 +1061,41 @@
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="C18" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="D18" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>109</v>
+        <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="C19" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="D19" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="C20" t="s">
-        <v>69</v>
+        <v>139</v>
       </c>
       <c r="D20" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">

--- a/src/test/resource/com/makemytrip/flightdetails/Flight Details.xlsx
+++ b/src/test/resource/com/makemytrip/flightdetails/Flight Details.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="141">
   <si>
     <t>Vistara</t>
   </si>
